--- a/chair/stock_assessment_summary.xlsx
+++ b/chair/stock_assessment_summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">Assessment summary</t>
   </si>
@@ -57,6 +57,12 @@
     <t>M</t>
   </si>
   <si>
+    <t xml:space="preserve">By sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex ratio</t>
+  </si>
+  <si>
     <t xml:space="preserve">sci or admin</t>
   </si>
   <si>
@@ -88,26 +94,175 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>NEP05</t>
+  </si>
+  <si>
+    <t>scientific</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB (meta-analisys)</t>
+  </si>
+  <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>NEP06</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 peak</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB DCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%M DCF</t>
+  </si>
+  <si>
+    <t>DCF</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>NEP09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin (mix with 8?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994 (2017 issue)</t>
+  </si>
+  <si>
+    <t>partially</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB by sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial ss3</t>
+  </si>
+  <si>
+    <t>NEP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin (East-West diff)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994 (miss 2022)</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARA 8-9-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994 (miss 8 in 2020, only 8 for 2022)</t>
+  </si>
+  <si>
+    <t>ARA1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARA 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 (misreporting by mainland vessels)</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARA 6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200? (most from 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB DCF for females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need check</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARS 8-9-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB by sex DCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very small effect of reconstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPS 5-6-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,15 +274,22 @@
       <diagonal style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,16 +797,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="13" width="12.7109375"/>
+    <col customWidth="1" min="2" max="2" width="12.7109375"/>
+    <col customWidth="1" min="3" max="3" width="19.8515625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="15.48046875"/>
+    <col customWidth="1" min="5" max="6" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="15.83203125"/>
+    <col customWidth="1" min="8" max="8" width="12.7109375"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" width="20.3125"/>
+    <col customWidth="1" min="10" max="13" width="12.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" ht="21" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -687,40 +856,470 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5">
+        <v>2009</v>
+      </c>
+      <c r="H5">
+        <v>2009</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>1994</v>
+      </c>
+      <c r="H6">
+        <v>1994</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>1994</v>
+      </c>
+      <c r="H7">
+        <v>1994</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8">
+        <v>1994</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>2003</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>1994</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="B10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>2002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>1994</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>1994</v>
+      </c>
+      <c r="H12">
+        <v>1994</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>2005</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>1994</v>
+      </c>
+      <c r="H13">
+        <v>1994</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>2003</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>1994</v>
+      </c>
+      <c r="H14">
+        <v>1994</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>2002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>1994</v>
+      </c>
+      <c r="H15">
+        <v>1994</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/chair/stock_assessment_summary.xlsx
+++ b/chair/stock_assessment_summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">Assessment summary</t>
   </si>
@@ -226,6 +226,45 @@
   </si>
   <si>
     <t xml:space="preserve">DPS 5-6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPS 8-9-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUT 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check reconstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUT 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUT 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of gaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUT 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALK DCF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKE 1-5-6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2002 (need to check)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HKE 8-9-10-11</t>
   </si>
 </sst>
 </file>
@@ -278,7 +317,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
@@ -286,6 +325,9 @@
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +839,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1322,6 +1364,222 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" ht="14.25">
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>2009</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <v>1994</v>
+      </c>
+      <c r="H16">
+        <v>1994</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2002</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>2007</v>
+      </c>
+      <c r="H17">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>2002</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18">
+        <v>1994</v>
+      </c>
+      <c r="H18">
+        <v>1994</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>2002</v>
+      </c>
+      <c r="G19">
+        <v>1994</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>2002</v>
+      </c>
+      <c r="G20">
+        <v>1994</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>2002</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21">
+        <v>1994</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>2002</v>
+      </c>
+      <c r="G22">
+        <v>1994</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>2002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="B24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
